--- a/StructureDefinition-summary-observation.xlsx
+++ b/StructureDefinition-summary-observation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-07T22:04:04+00:00</t>
+    <t>2022-04-07T22:04:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
